--- a/Files/Tables/Exotic/Exotic Armors.xlsx
+++ b/Files/Tables/Exotic/Exotic Armors.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ARMORS</t>
   </si>
@@ -94,6 +94,81 @@
   </si>
   <si>
     <t>BONUS</t>
+  </si>
+  <si>
+    <t>Yokudan Heavy Helm</t>
+  </si>
+  <si>
+    <t>Yokudan Heavy Cuirass</t>
+  </si>
+  <si>
+    <t>Yokudan Heavy Gauntlets</t>
+  </si>
+  <si>
+    <t>Yokudan Heavy Boots</t>
+  </si>
+  <si>
+    <t>Yokudan Heavy Shield</t>
+  </si>
+  <si>
+    <t>Yokudan Light Helm</t>
+  </si>
+  <si>
+    <t>Yokudan Light Cuirass</t>
+  </si>
+  <si>
+    <t>Yokudan Light Gloves</t>
+  </si>
+  <si>
+    <t>Yokudan Light Boots</t>
+  </si>
+  <si>
+    <t>Yokudan Light Shield</t>
+  </si>
+  <si>
+    <t>Dwemer Resin Helm</t>
+  </si>
+  <si>
+    <t>Dwemer Resin Cuirass</t>
+  </si>
+  <si>
+    <t>Dwemer Resin Gauntlets</t>
+  </si>
+  <si>
+    <t>Dwemer Resin Boots</t>
+  </si>
+  <si>
+    <t>Dwemer Resin Shield</t>
+  </si>
+  <si>
+    <t>Dwemer Purple Resin Helm</t>
+  </si>
+  <si>
+    <t>Dwemer Purple Resin Cuirass</t>
+  </si>
+  <si>
+    <t>Dwemer Purple Resin Gauntlets</t>
+  </si>
+  <si>
+    <t>Dwemer Purple Resin Boots</t>
+  </si>
+  <si>
+    <t>Dwemer Purple Resin Shield</t>
+  </si>
+  <si>
+    <t>Dwemer Aetherium Infused Helm</t>
+  </si>
+  <si>
+    <t>Dwemer Aetherium Infused Cuirass</t>
+  </si>
+  <si>
+    <t>Dwemer Aetherium Infused Gauntlets</t>
+  </si>
+  <si>
+    <t>Dwemer Aetherium Infused Boots</t>
+  </si>
+  <si>
+    <t>Dwemer Aetherium Infused Shield</t>
   </si>
 </sst>
 </file>
@@ -513,14 +588,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L12"/>
+  <dimension ref="B1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L16:L17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
@@ -582,8 +658,131 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
       <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
